--- a/biology/Botanique/The_Vintner's_Luck/The_Vintner's_Luck.xlsx
+++ b/biology/Botanique/The_Vintner's_Luck/The_Vintner's_Luck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The_Vintner%27s_Luck</t>
+          <t>The_Vintner's_Luck</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Vintner's Luck est un film fantastique franco-belgo-néo-zélandais réalisé par Niki Caro, sorti en 2009. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The_Vintner%27s_Luck</t>
+          <t>The_Vintner's_Luck</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jeune viticulteur ambitieux, Sobran Jodeau, rêve de créer un grand cru. Il a trois amours dans sa vie : sa femme Céleste, la baronne Aurora de Valday, et l'ange Xas.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The_Vintner%27s_Luck</t>
+          <t>The_Vintner's_Luck</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Vintner's Luck
 Titre français : La Veine du vigneron
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The_Vintner%27s_Luck</t>
+          <t>The_Vintner's_Luck</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jérémie Renier : Sobran Jodeau
 Keisha Castle-Hughes : Céleste
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The_Vintner%27s_Luck</t>
+          <t>The_Vintner's_Luck</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,12 +656,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-Meilleure réalisatrice pour Niki Caro aux 44ème Festival international du film d'Houston
-Meilleur film d'époque et Meilleur film étranger au Festival international du film de Sedona en 2011
-Nominations
-Meilleure photographie pour Denis Lenoir aux Qantas Film &amp; Television Awards
-Meilleurs effets spéciaux pour George Ritchie aux Qantas Film &amp; Television Awards</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Meilleure réalisatrice pour Niki Caro aux 44ème Festival international du film d'Houston
+Meilleur film d'époque et Meilleur film étranger au Festival international du film de Sedona en 2011</t>
         </is>
       </c>
     </row>
@@ -653,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The_Vintner%27s_Luck</t>
+          <t>The_Vintner's_Luck</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -668,10 +688,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Box-office</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Meilleure photographie pour Denis Lenoir aux Qantas Film &amp; Television Awards
+Meilleurs effets spéciaux pour George Ritchie aux Qantas Film &amp; Television Awards</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -679,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The_Vintner%27s_Luck</t>
+          <t>The_Vintner's_Luck</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -694,10 +725,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Réception critique</t>
+          <t>Box-office</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -705,7 +738,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The_Vintner%27s_Luck</t>
+          <t>The_Vintner's_Luck</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -720,10 +753,40 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_Vintner's_Luck</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Vintner%27s_Luck</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">The Vinter's Luck marque la seconde collaboration entre la réalisatrice Niki Caro et l'actrice Keisha Castle-Hughes. En 2002, elles avaient déjà travaillé ensemble sur Paï. La comédienne avait alors treize ans. Le coscénariste Joan Scheckel a également collaboré aux deux projets. 
 Le film a été tourné en Nouvelle-Zélande et en Belgique mais également en France, notamment dans le château médiéval de Berzé, en Bourgogne.
